--- a/backend/django_subject_manager/test_input/input_angol.xlsx
+++ b/backend/django_subject_manager/test_input/input_angol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/subject_manager/backend/django_subject_manager/test_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FBE782-C12F-E342-99BB-671CCDABF9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F73427-1981-504E-9FD2-4FFBAEBF450C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24240" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,39 +41,21 @@
     <t>Computer Science BSc 2018 (in English, for Foreign students)</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Előfeltétel 1</t>
-  </si>
-  <si>
     <t>Lecture (L)</t>
   </si>
   <si>
     <t>Exam €</t>
   </si>
   <si>
-    <t>Practice (Pr</t>
-  </si>
-  <si>
     <t>Labor</t>
   </si>
   <si>
-    <t>Practice Grade (PG)</t>
-  </si>
-  <si>
     <t>Consultation</t>
   </si>
   <si>
     <t>Credit</t>
   </si>
   <si>
-    <t>Semester</t>
-  </si>
-  <si>
     <t>1st Semester</t>
   </si>
   <si>
@@ -525,6 +507,24 @@
   </si>
   <si>
     <t>CA: Practice with continuous assessment</t>
+  </si>
+  <si>
+    <t>Subject Code</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Prerequisite</t>
+  </si>
+  <si>
+    <t>Practice (Pr)</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Recommended Semester</t>
   </si>
 </sst>
 </file>
@@ -1512,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S49" sqref="S49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1579,72 +1579,72 @@
       <c r="A6" s="9"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" ht="98" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="127" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="H7" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="J7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="K7" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="M7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="N7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="O7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="P7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="Q7" s="38" t="s">
         <v>11</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="38" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="40">
         <v>2</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F8" s="40">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I8" s="40">
         <v>1</v>
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M8" s="40"/>
       <c r="N8" s="40"/>
@@ -1675,17 +1675,17 @@
     </row>
     <row r="9" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="16">
         <v>2</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F9" s="16">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I9" s="16">
         <v>1</v>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
@@ -1716,17 +1716,17 @@
     </row>
     <row r="10" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="16">
         <v>2</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F10" s="16">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I10" s="16">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
@@ -1757,17 +1757,17 @@
     </row>
     <row r="11" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="16">
         <v>2</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F11" s="16">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="16">
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
@@ -1835,10 +1835,10 @@
     </row>
     <row r="13" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="16">
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I13" s="16">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
@@ -1874,17 +1874,17 @@
     </row>
     <row r="14" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="16">
         <v>1</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F14" s="16">
         <v>2</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -1915,19 +1915,19 @@
     </row>
     <row r="15" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D15" s="16">
         <v>2</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F15" s="16">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I15" s="16">
         <v>2</v>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -1958,19 +1958,19 @@
     </row>
     <row r="16" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" s="16">
         <v>2</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I16" s="16">
         <v>1</v>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N16" s="30"/>
       <c r="O16" s="16"/>
@@ -2001,19 +2001,19 @@
     </row>
     <row r="17" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I17" s="16">
         <v>0</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N17" s="30"/>
       <c r="O17" s="16"/>
@@ -2044,19 +2044,19 @@
     </row>
     <row r="18" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D18" s="16">
         <v>2</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N18" s="30"/>
       <c r="O18" s="16"/>
@@ -2085,13 +2085,13 @@
     </row>
     <row r="19" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D19" s="16">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I19" s="16">
         <v>1</v>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N19" s="30"/>
       <c r="O19" s="16"/>
@@ -2126,19 +2126,19 @@
     </row>
     <row r="20" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D20" s="16">
         <v>2</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F20" s="16">
         <v>0</v>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N20" s="30"/>
       <c r="O20" s="16"/>
@@ -2167,13 +2167,13 @@
     </row>
     <row r="21" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D21" s="16">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I21" s="16">
         <v>1</v>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N21" s="30"/>
       <c r="O21" s="16"/>
@@ -2208,19 +2208,19 @@
     </row>
     <row r="22" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D22" s="16">
         <v>2</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F22" s="16">
         <v>0</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N22" s="30"/>
       <c r="O22" s="16"/>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="23" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D23" s="16">
         <v>0</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I23" s="16">
         <v>1</v>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N23" s="30"/>
       <c r="O23" s="16"/>
@@ -2290,19 +2290,19 @@
     </row>
     <row r="24" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D24" s="16">
         <v>2</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F24" s="16">
         <v>0</v>
@@ -2323,7 +2323,7 @@
       <c r="L24" s="16"/>
       <c r="M24" s="30"/>
       <c r="N24" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
@@ -2331,13 +2331,13 @@
     </row>
     <row r="25" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D25" s="16">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I25" s="16">
         <v>1</v>
@@ -2364,7 +2364,7 @@
       <c r="L25" s="16"/>
       <c r="M25" s="30"/>
       <c r="N25" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
@@ -2372,13 +2372,13 @@
     </row>
     <row r="26" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D26" s="16">
         <v>1</v>
@@ -2391,7 +2391,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I26" s="16">
         <v>1</v>
@@ -2405,7 +2405,7 @@
       <c r="L26" s="16"/>
       <c r="M26" s="30"/>
       <c r="N26" s="30" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
@@ -2413,13 +2413,13 @@
     </row>
     <row r="27" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D27" s="16">
         <v>2</v>
@@ -2432,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I27" s="16">
         <v>1</v>
@@ -2446,7 +2446,7 @@
       <c r="L27" s="16"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
@@ -2454,19 +2454,19 @@
     </row>
     <row r="28" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D28" s="16">
         <v>2</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F28" s="16">
         <v>0</v>
@@ -2487,7 +2487,7 @@
       <c r="L28" s="16"/>
       <c r="M28" s="30"/>
       <c r="N28" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
@@ -2495,13 +2495,13 @@
     </row>
     <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D29" s="16">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I29" s="16">
         <v>1</v>
@@ -2528,7 +2528,7 @@
       <c r="L29" s="16"/>
       <c r="M29" s="30"/>
       <c r="N29" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
@@ -2536,13 +2536,13 @@
     </row>
     <row r="30" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D30" s="16">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I30" s="16">
         <v>1</v>
@@ -2569,7 +2569,7 @@
       <c r="L30" s="16"/>
       <c r="M30" s="30"/>
       <c r="N30" s="30" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
@@ -2577,19 +2577,19 @@
     </row>
     <row r="31" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D31" s="16">
         <v>1</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F31" s="16">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I31" s="16">
         <v>1</v>
@@ -2613,26 +2613,26 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
     </row>
     <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D32" s="16">
         <v>2</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F32" s="16">
         <v>0</v>
@@ -2654,20 +2654,20 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D33" s="16">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I33" s="16">
         <v>0</v>
@@ -2695,26 +2695,26 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
     </row>
     <row r="34" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D34" s="16">
         <v>2</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F34" s="16">
         <v>0</v>
@@ -2736,20 +2736,20 @@
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
       <c r="O34" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P34" s="16"/>
       <c r="Q34" s="17"/>
     </row>
     <row r="35" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D35" s="16">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I35" s="16">
         <v>1</v>
@@ -2777,20 +2777,20 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P35" s="16"/>
       <c r="Q35" s="17"/>
     </row>
     <row r="36" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D36" s="16">
         <v>2</v>
@@ -2803,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I36" s="16">
         <v>1</v>
@@ -2818,26 +2818,26 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P36" s="16"/>
       <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D37" s="16">
         <v>2</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F37" s="16">
         <v>0</v>
@@ -2859,20 +2859,20 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P37" s="16"/>
       <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D38" s="16">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I38" s="16">
         <v>1</v>
@@ -2900,26 +2900,26 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
     </row>
     <row r="39" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D39" s="16">
         <v>2</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F39" s="16">
         <v>0</v>
@@ -2941,20 +2941,20 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
     </row>
     <row r="40" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D40" s="16">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I40" s="16">
         <v>1</v>
@@ -2982,20 +2982,20 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P40" s="16"/>
       <c r="Q40" s="17"/>
     </row>
     <row r="41" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D41" s="16">
         <v>1</v>
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I41" s="16">
         <v>1</v>
@@ -3024,25 +3024,25 @@
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="Q41" s="17"/>
     </row>
     <row r="42" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D42" s="16">
         <v>2</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F42" s="16">
         <v>0</v>
@@ -3065,19 +3065,19 @@
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q42" s="17"/>
     </row>
     <row r="43" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D43" s="16">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I43" s="16">
         <v>1</v>
@@ -3106,25 +3106,25 @@
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q43" s="17"/>
     </row>
     <row r="44" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D44" s="16">
         <v>2</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F44" s="16">
         <v>0</v>
@@ -3147,25 +3147,25 @@
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q44" s="17"/>
     </row>
     <row r="45" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D45" s="16">
         <v>2</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F45" s="16">
         <v>0</v>
@@ -3188,19 +3188,19 @@
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q45" s="17"/>
     </row>
     <row r="46" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D46" s="16">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>2</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I46" s="16">
         <v>1</v>
@@ -3229,25 +3229,25 @@
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
       <c r="P46" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q46" s="17"/>
     </row>
     <row r="47" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D47" s="16">
         <v>2</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F47" s="16">
         <v>0</v>
@@ -3270,19 +3270,19 @@
       <c r="N47" s="16"/>
       <c r="O47" s="16"/>
       <c r="P47" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q47" s="17"/>
     </row>
     <row r="48" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D48" s="16">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I48" s="16">
         <v>1</v>
@@ -3311,19 +3311,19 @@
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
       <c r="P48" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q48" s="17"/>
     </row>
     <row r="49" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D49" s="16">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>2</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I49" s="16">
         <v>1</v>
@@ -3352,14 +3352,14 @@
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
       <c r="P49" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q49" s="17"/>
     </row>
     <row r="50" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33"/>
       <c r="B50" s="42" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="43"/>
@@ -3391,77 +3391,77 @@
     </row>
     <row r="51" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="97" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="126" x14ac:dyDescent="0.2">
       <c r="A52" s="34" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="C52" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="H52" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="I52" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="J52" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="36" t="s">
+      <c r="K52" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="L52" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="36" t="s">
+      <c r="M52" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="36" t="s">
+      <c r="N52" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="36" t="s">
+      <c r="O52" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="36" t="s">
+      <c r="P52" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K52" s="37" t="s">
+      <c r="Q52" s="38" t="s">
         <v>11</v>
-      </c>
-      <c r="L52" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N52" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="O52" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="P52" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q52" s="38" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D53" s="16">
         <v>1</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F53" s="16">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I53" s="16">
         <v>0</v>
@@ -3479,36 +3479,36 @@
         <v>3</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
       <c r="N53" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P53" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q53" s="17"/>
     </row>
     <row r="54" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D54" s="16">
         <v>2</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F54" s="16">
         <v>0</v>
@@ -3530,22 +3530,22 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P54" s="16"/>
       <c r="Q54" s="17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D55" s="16">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I55" s="16">
         <v>1</v>
@@ -3573,28 +3573,28 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
       <c r="O55" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P55" s="16"/>
       <c r="Q55" s="17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D56" s="16">
         <v>2</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F56" s="16">
         <v>0</v>
@@ -3610,12 +3610,12 @@
         <v>3</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O56" s="16"/>
       <c r="P56" s="16"/>
@@ -3623,19 +3623,19 @@
     </row>
     <row r="57" spans="1:20" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C57" s="55" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D57" s="16">
         <v>2</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F57" s="16">
         <v>0</v>
@@ -3656,23 +3656,23 @@
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
       <c r="N57" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O57" s="16"/>
       <c r="P57" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q57" s="17"/>
     </row>
     <row r="58" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D58" s="16">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I58" s="16">
         <v>1</v>
@@ -3699,23 +3699,23 @@
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
       <c r="N58" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O58" s="16"/>
       <c r="P58" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q58" s="17"/>
     </row>
     <row r="59" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C59" s="53" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D59" s="16">
         <v>0</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I59" s="16">
         <v>1</v>
@@ -3744,25 +3744,25 @@
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
       <c r="P59" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q59" s="50"/>
     </row>
     <row r="60" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D60" s="16">
         <v>2</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F60" s="16">
         <v>0</v>
@@ -3785,19 +3785,19 @@
       <c r="N60" s="16"/>
       <c r="O60" s="16"/>
       <c r="P60" s="16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q60" s="17"/>
     </row>
     <row r="61" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D61" s="16">
         <v>0</v>
@@ -3810,7 +3810,7 @@
         <v>2</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I61" s="16">
         <v>0</v>
@@ -3826,26 +3826,26 @@
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
       <c r="P61" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q61" s="17"/>
       <c r="T61" s="51"/>
     </row>
     <row r="62" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D62" s="16">
         <v>2</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F62" s="16">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I62" s="16">
         <v>1</v>
@@ -3870,26 +3870,26 @@
       <c r="N62" s="16"/>
       <c r="O62" s="16"/>
       <c r="P62" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q62" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="T62" s="51"/>
     </row>
     <row r="63" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="67" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B63" s="60" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="16">
         <v>2</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F63" s="16">
         <v>0</v>
@@ -3905,36 +3905,36 @@
         <v>5</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="61"/>
       <c r="N63" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O63" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P63" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q63" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="68" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B64" s="69" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C64" s="28"/>
       <c r="D64" s="70">
         <v>2</v>
       </c>
       <c r="E64" s="71" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F64" s="70">
         <v>0</v>
@@ -3955,18 +3955,18 @@
       <c r="L64" s="71"/>
       <c r="M64" s="73"/>
       <c r="N64" s="71" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O64" s="71"/>
       <c r="P64" s="71" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q64" s="44"/>
     </row>
     <row r="65" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="62"/>
       <c r="B65" s="63" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C65" s="64"/>
       <c r="D65" s="65"/>
@@ -3997,7 +3997,7 @@
     <row r="66" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="46" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C66" s="57"/>
       <c r="D66" s="47"/>
@@ -4032,7 +4032,7 @@
     <row r="67" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="B67" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C67" s="58"/>
       <c r="D67" s="21"/>
@@ -4058,10 +4058,10 @@
     </row>
     <row r="68" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C68" s="58"/>
       <c r="D68" s="21"/>
@@ -4086,7 +4086,7 @@
     <row r="69" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="B69" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="24"/>
@@ -4119,7 +4119,7 @@
     <row r="70" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C70" s="56"/>
       <c r="D70" s="26"/>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="73" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="78" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B73" s="78"/>
       <c r="C73" s="78"/>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="75" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="78" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B75" s="78"/>
       <c r="C75" s="78"/>
@@ -4253,15 +4253,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100CA947E63DBB18C43B0DCD636FEFAAF82" ma:contentTypeVersion="10" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="add355b8eb8a1d07a5c296ebc5fa18c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bdf3a53-275c-4001-b611-e41331286eb1" xmlns:ns3="64cee142-9623-4b63-8ea8-1d4facd6545a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="39c3d52e67d593269f3de29aa75e9200" ns2:_="" ns3:_="">
     <xsd:import namespace="0bdf3a53-275c-4001-b611-e41331286eb1"/>
@@ -4450,6 +4441,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E11E5BB-D532-4492-9D3A-3684DEAD3184}">
   <ds:schemaRefs>
@@ -4462,14 +4462,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C094DEF4-EC90-43B8-9BD8-CA2179F2E790}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51543AC5-E93B-4960-86D0-CA14017C79AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4486,4 +4478,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C094DEF4-EC90-43B8-9BD8-CA2179F2E790}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>